--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computing Study\Semister 6\Agile Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF514F13-0F56-46BE-849F-75C6533E48F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9512F1EC-CE07-4925-8D34-373FC8E3067B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint one" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -166,14 +166,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2208,6 +2211,1222 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint six'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint six'!$C$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7673-435A-A4D1-6EE0C25B6882}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint six'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint six'!$C$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7673-435A-A4D1-6EE0C25B6882}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1597920496"/>
+        <c:axId val="1597920912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1597920496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1597920912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1597920912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1597920496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint seven'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint seven'!$C$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47BE-4976-BE01-118D3F553170}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint seven'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint seven'!$C$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-47BE-4976-BE01-118D3F553170}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1077424351"/>
+        <c:axId val="1077420191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1077424351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1077420191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1077420191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1077424351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint eight'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint eight'!$C$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0837-4690-AC51-F669909CF8D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint eight'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint eight'!$C$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0837-4690-AC51-F669909CF8D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1249597967"/>
+        <c:axId val="1249597135"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1249597967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1249597135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1249597135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1249597967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2408,6 +3627,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4473,6 +5812,1554 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5193,6 +8080,129 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109FE384-3F09-4AA5-8943-CF85659DF265}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9692AD7-8C74-4BEB-B1D2-2137D4FDE0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A28C682-0AAA-46D6-9EDA-B5C09D99D82C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5468,7 +8478,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5501,7 +8511,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5555,7 +8565,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5565,30 +8575,30 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>83</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>14.5</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="5">
         <v>15</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="5">
         <v>13.5</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="5">
         <v>13</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="5">
         <v>13</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="5">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5596,25 +8606,25 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>83</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>-2.1</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>-1.6</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>-3.1</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>-3.6</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>-3.6</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>69</v>
       </c>
     </row>
@@ -5641,7 +8651,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5651,30 +8661,30 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>75</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>14</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="5">
         <v>15.5</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="5">
         <v>12</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="5">
         <v>12.5</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="5">
         <v>12.5</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="5">
         <v>66.5</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5682,25 +8692,25 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>75</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>-1</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.5</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>-3</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>-2.5</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>-2.5</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>66.5</v>
       </c>
     </row>
@@ -5727,7 +8737,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5737,30 +8747,30 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>62</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>10</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="5">
         <v>13</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="5">
         <v>10.5</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="5">
         <v>10</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="5">
         <v>9</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="5">
         <v>52.5</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5768,25 +8778,25 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>62</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>-2.4</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.6</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>-1.9</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>-2.4</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>-3.4</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>52.5</v>
       </c>
     </row>
@@ -5803,7 +8813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BEA967-2C47-4AE3-ABDE-9BE2A01D5395}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -5813,7 +8823,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5823,30 +8833,30 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>44</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>9.5</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="5">
         <v>7.5</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="5">
         <v>8</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="5">
         <v>7</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="5">
         <v>7</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="5">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5854,25 +8864,25 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>44</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0.7</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>-1.3</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>-0.8</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>-1.8</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>-1.8</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>39</v>
       </c>
     </row>
@@ -5890,7 +8900,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5899,67 +8909,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3">
-        <v>106</v>
-      </c>
-      <c r="H1" s="3">
-        <v>18.5</v>
-      </c>
-      <c r="I1" s="3">
-        <v>18</v>
-      </c>
-      <c r="J1" s="3">
-        <v>19</v>
-      </c>
-      <c r="K1" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="L1" s="3">
-        <v>19</v>
-      </c>
-      <c r="M1" s="3">
-        <v>92</v>
+      <c r="C1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="5">
+        <v>62</v>
+      </c>
+      <c r="H1" s="5">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="J1" s="5">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="M1" s="5">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3">
-        <v>106</v>
-      </c>
-      <c r="H2" s="4">
-        <v>-2.7</v>
-      </c>
-      <c r="I2" s="4">
-        <v>-3.2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="K2" s="4">
-        <v>-1.7</v>
-      </c>
-      <c r="L2" s="4">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="M2" s="3">
-        <v>92</v>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5">
+        <v>62</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-1.4</v>
+      </c>
+      <c r="I2" s="6">
+        <v>-0.9</v>
+      </c>
+      <c r="J2" s="6">
+        <v>-2.4</v>
+      </c>
+      <c r="K2" s="6">
+        <v>-2.4</v>
+      </c>
+      <c r="L2" s="6">
+        <v>-1.9</v>
+      </c>
+      <c r="M2" s="5">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5967,6 +8977,8 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5975,7 +8987,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5984,67 +8996,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3">
-        <v>106</v>
-      </c>
-      <c r="H1" s="3">
-        <v>18.5</v>
-      </c>
-      <c r="I1" s="3">
-        <v>18</v>
-      </c>
-      <c r="J1" s="3">
-        <v>19</v>
-      </c>
-      <c r="K1" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="L1" s="3">
-        <v>19</v>
-      </c>
-      <c r="M1" s="3">
-        <v>92</v>
+      <c r="C1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="5">
+        <v>78</v>
+      </c>
+      <c r="H1" s="5">
+        <v>14</v>
+      </c>
+      <c r="I1" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="J1" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="K1" s="5">
+        <v>14</v>
+      </c>
+      <c r="L1" s="5">
+        <v>14</v>
+      </c>
+      <c r="M1" s="5">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3">
-        <v>106</v>
-      </c>
-      <c r="H2" s="4">
-        <v>-2.7</v>
-      </c>
-      <c r="I2" s="4">
-        <v>-3.2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="K2" s="4">
-        <v>-1.7</v>
-      </c>
-      <c r="L2" s="4">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="M2" s="3">
-        <v>92</v>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5">
+        <v>78</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-1.6</v>
+      </c>
+      <c r="I2" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K2" s="6">
+        <v>-1.6</v>
+      </c>
+      <c r="L2" s="6">
+        <v>-1.6</v>
+      </c>
+      <c r="M2" s="5">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6052,6 +9064,8 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6059,8 +9073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5889B9A-88BA-47F7-9375-CAD19783091E}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6069,67 +9083,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3">
-        <v>106</v>
-      </c>
-      <c r="H1" s="3">
-        <v>18.5</v>
-      </c>
-      <c r="I1" s="3">
-        <v>18</v>
-      </c>
-      <c r="J1" s="3">
-        <v>19</v>
-      </c>
-      <c r="K1" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="L1" s="3">
-        <v>19</v>
-      </c>
-      <c r="M1" s="3">
-        <v>92</v>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="5">
+        <v>50</v>
+      </c>
+      <c r="H1" s="5">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="J1" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="K1" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="L1" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="M1" s="5">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3">
-        <v>106</v>
-      </c>
-      <c r="H2" s="4">
-        <v>-2.7</v>
-      </c>
-      <c r="I2" s="4">
-        <v>-3.2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="K2" s="4">
-        <v>-1.7</v>
-      </c>
-      <c r="L2" s="4">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="M2" s="3">
-        <v>92</v>
+      <c r="G2" s="5">
+        <v>50</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="6">
+        <v>-1.5</v>
+      </c>
+      <c r="L2" s="6">
+        <v>-1.5</v>
+      </c>
+      <c r="M2" s="5">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6137,5 +9151,7 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>